--- a/public/testUpload_location.xlsx
+++ b/public/testUpload_location.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tomato_mvc\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\plant_mvc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B05EADB-CCFE-4480-92CB-F7C72A981A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5964"/>
+    <workbookView xWindow="600" yWindow="4860" windowWidth="18525" windowHeight="5925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pass" sheetId="2" r:id="rId1"/>
@@ -185,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd\/mm\/yy"/>
@@ -336,13 +337,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_Sheet1" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
-    <cellStyle name="ปกติ 2" xfId="5"/>
-    <cellStyle name="ปกติ 3" xfId="6"/>
-    <cellStyle name="ปกติ 4" xfId="1"/>
-    <cellStyle name="ปกติ_2011" xfId="3"/>
+    <cellStyle name="ปกติ 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="ปกติ 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="ปกติ 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="ปกติ_2011" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,49 +620,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.88671875" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="19.2">
+    <row r="1" spans="1:31" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -756,7 +757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="37.799999999999997">
+    <row r="2" spans="1:31" ht="38.25">
       <c r="A2" s="19" t="s">
         <v>38</v>
       </c>
@@ -843,7 +844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="37.799999999999997">
+    <row r="3" spans="1:31" ht="38.25">
       <c r="A3" s="19" t="s">
         <v>50</v>
       </c>
@@ -930,7 +931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="37.799999999999997">
+    <row r="4" spans="1:31" ht="38.25">
       <c r="A4" s="19" t="s">
         <v>51</v>
       </c>

--- a/public/testUpload_location.xlsx
+++ b/public/testUpload_location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\plant_mvc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B05EADB-CCFE-4480-92CB-F7C72A981A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59555F2-BA64-41C6-8805-E6907AE9BE11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="4860" windowWidth="18525" windowHeight="5925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6810" yWindow="2655" windowWidth="9105" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pass" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>TM Group</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>LE5545</t>
+  </si>
+  <si>
+    <t>TG025666</t>
   </si>
 </sst>
 </file>
@@ -623,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -849,7 +852,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>40</v>
